--- a/DateBase/orders/Nha Thu_2025-7-14.xlsx
+++ b/DateBase/orders/Nha Thu_2025-7-14.xlsx
@@ -1152,6 +1152,9 @@
       <c r="G2" t="str">
         <v>060100351530201015151510501634520156161213101412105541010108118610461540.521.510101555555551051510158101081010510105201551010203051510</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
